--- a/tests/spip_anciens.xlsx
+++ b/tests/spip_anciens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoar\PycharmProjects\OpenAlumni\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoar\Mon Drive\Work\Femis\Referentiels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81ADEEC-B8AB-475E-977A-F4F2EC04171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D66F9-F315-4FC0-AFC2-348178A1A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">spip_anciens!$A$1:$AI$1696</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
@@ -24441,7 +24440,7 @@
   <dimension ref="A1:AI1696"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
